--- a/trunk/Trunk/NewBugReport.xlsx
+++ b/trunk/Trunk/NewBugReport.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="165">
   <si>
     <t>Category</t>
   </si>
@@ -932,6 +932,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -970,9 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1679,8 +1679,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1693,11 +1693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:44" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="12" t="s">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="30">
         <v>40750</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="30">
         <v>40747</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R6" s="30">
         <v>40747</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="AB6" s="32"/>
       <c r="AC6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD6" s="30">
         <v>40747</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AF6" s="32"/>
       <c r="AG6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH6" s="30">
         <v>40750</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AJ6" s="32"/>
       <c r="AK6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL6" s="30">
         <v>40750</v>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="AN6" s="32"/>
       <c r="AO6" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP6" s="30">
         <v>40750</v>
@@ -2282,554 +2282,554 @@
       <c r="AR6" s="32"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="38" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="38" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="38" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="38" t="s">
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="38" t="s">
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="41" t="s">
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41" t="s">
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41" t="s">
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41" t="s">
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="35" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="35" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="35" t="s">
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="35" t="s">
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="35" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="42" t="s">
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42" t="s">
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42" t="s">
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42" t="s">
+      <c r="AL8" s="43"/>
+      <c r="AM8" s="43"/>
+      <c r="AN8" s="43"/>
+      <c r="AO8" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
     </row>
     <row r="9" spans="1:44" ht="15" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="43" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="43" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="43" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="43" t="s">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="43" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43" t="s">
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="43" t="s">
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="43" t="s">
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="43" t="s">
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="46"/>
     </row>
     <row r="10" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="35" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="35" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="35" t="s">
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="35" t="s">
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="35" t="s">
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="35" t="s">
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="35" t="s">
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="35" t="s">
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="35" t="s">
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="38"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="38" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="38" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="38" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="38" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="38" t="s">
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="38" t="s">
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="38" t="s">
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="38" t="s">
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="38" t="s">
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="38" t="s">
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="41"/>
     </row>
     <row r="12" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="35" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="35" t="s">
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="35" t="s">
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="35" t="s">
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="35" t="s">
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="35" t="s">
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="35" t="s">
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="35" t="s">
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="37"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="37"/>
+      <c r="AR12" s="38"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="38" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="38" t="s">
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="38" t="s">
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="38" t="s">
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="38" t="s">
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="38" t="s">
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="38" t="s">
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="38" t="s">
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="38" t="s">
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="41"/>
     </row>
     <row r="14" spans="1:44" ht="50.1" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="35" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="35" t="s">
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="35" t="s">
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="35" t="s">
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="35" t="s">
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="35" t="s">
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="35" t="s">
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="35" t="s">
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="35" t="s">
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="37"/>
+      <c r="AR14" s="38"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N21" s="34" t="s">
         <v>123</v>
@@ -3093,260 +3093,260 @@
       <c r="T21" s="34"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="38" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="38" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="38" t="s">
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="38" t="s">
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="35" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="35" t="s">
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="35" t="s">
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="35" t="s">
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
     </row>
     <row r="24" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="43" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="43" t="s">
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="43" t="s">
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="43" t="s">
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="46"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="35" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35" t="s">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="35" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="35" t="s">
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41" t="s">
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="38" t="s">
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="41"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42" t="s">
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="35" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
     </row>
     <row r="28" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41" t="s">
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="38" t="s">
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="41"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42" t="s">
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42" t="s">
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="35" t="s">
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="38"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
@@ -3558,40 +3558,50 @@
       <c r="T34" s="33"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="34"/>
-      <c r="B35" s="48">
+      <c r="A35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="35">
         <v>40750</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="48">
+      <c r="E35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="35">
         <v>40750</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>51</v>
       </c>
       <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="48">
+      <c r="I35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" s="35">
         <v>40750</v>
       </c>
       <c r="K35" s="34" t="s">
         <v>51</v>
       </c>
       <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="48">
+      <c r="M35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" s="35">
         <v>40750</v>
       </c>
       <c r="O35" s="34" t="s">
         <v>51</v>
       </c>
       <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="48">
+      <c r="Q35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="35">
         <v>40750</v>
       </c>
       <c r="S35" s="34" t="s">
@@ -3600,260 +3610,260 @@
       <c r="T35" s="34"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41" t="s">
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41" t="s">
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42" t="s">
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42" t="s">
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
       <c r="Q37" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
     </row>
     <row r="38" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47" t="s">
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47" t="s">
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47" t="s">
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42" t="s">
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42" t="s">
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42" t="s">
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
     </row>
     <row r="40" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41" t="s">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41" t="s">
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41" t="s">
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42" t="s">
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42" t="s">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42" t="s">
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
     </row>
     <row r="42" spans="1:20" ht="49.5" customHeight="1">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41" t="s">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41" t="s">
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42" t="s">
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42" t="s">
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42" t="s">
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
     </row>
     <row r="52" ht="49.5" customHeight="1"/>
     <row r="54" ht="49.5" customHeight="1"/>

--- a/trunk/Trunk/NewBugReport.xlsx
+++ b/trunk/Trunk/NewBugReport.xlsx
@@ -1679,8 +1679,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R21" s="34" t="s">
         <v>123</v>
